--- a/Maven_Actitime/src/test/resources/Tools.xlsx
+++ b/Maven_Actitime/src/test/resources/Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11412" windowHeight="7620" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12276" windowHeight="7620" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
     <t>Bangalore,India</t>
   </si>
   <si>
-    <t>UNITED-00224</t>
+    <t>pnb-0022447788</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1800,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Maven_Actitime/src/test/resources/Tools.xlsx
+++ b/Maven_Actitime/src/test/resources/Tools.xlsx
@@ -188,7 +188,7 @@
     <t>Bangalore,India</t>
   </si>
   <si>
-    <t>pnb-0022447788</t>
+    <t>pnb5677</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1800,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
